--- a/medicine/Enfance/Leslie_McFarlane/Leslie_McFarlane.xlsx
+++ b/medicine/Enfance/Leslie_McFarlane/Leslie_McFarlane.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Leslie MacFarlane, né le 25 octobre 1902 à Carleton Place, Ontario, et mort le 6 septembre 1977 à Whitby, Ontario, est un scénariste et un auteur canadien de roman policier. Il est également un nègre littéraire ayant écrit sous divers noms-maison plusieurs ouvrages de littérature d’enfance et de jeunesse, dont des volumes des séries : Les Frères Hardy signée Franklin W. Dixon, Une enquête des sœurs Parker signée Caroline Quine et Dave Fearless signée Roy Rockwood.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils d’un directeur d’école, il passe son enfance à Haileybury, Ontario (en). Peu après la fin de ses études secondaires, il devient écrivain au moment où sa famille et lui déménage à Whitby, petite ville sise sur le littoral nord du lac Ontario. Il devient ensuite reporter pour un journal de Sudbury, puis travaille brièvement pour un journal de Toronto avant de s’installer aux États-Unis pour entrer dans la salle de rédaction d’un quotidien de droite de Springfield.  
 Dans la seconde moitié des années 1920, il commence à écrire des nouvelles policières et d'aventures pour divers magazines et journaux, dont le Toronto Star. Il devient à la même époque un des nègres littéraires employés par le Stratemeyer Syndicate pour rédiger sous des noms-maison divers ouvrages pour la jeunesse. Il donne ainsi, sous le pseudonyme de Franklin W. Dixon, les premières aventures de Les Frères Hardy et, sous celui de Carolyn Keene (en français, Caroline Quine), les quatre premiers volumes de Une enquête des sœurs Parker. Dans les années 1930, il fait aussi paraître sous son patronyme deux romans policiers ayant pour héros l'enquêteur Michael Brent. Il ne revient au genre policier pour adultes que dans les années 1970 avec quelques titres mêlés à la parution de récits d'aventures et des deux volumes d'une autobiographie.
@@ -546,24 +560,183 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Série policière Michael Brent
-Streets of Shadow (1930)
-The Murder Tree (1931) Publié en français sous le titre L’Arbre de la mort, Paris, Librairie des Champs-Élysées, Le Masque no 153, 1934
-Autres romans policiers
-Agent of the Falcon (1975)
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Série policière Michael Brent</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Streets of Shadow (1930)
+The Murder Tree (1931) Publié en français sous le titre L’Arbre de la mort, Paris, Librairie des Champs-Élysées, Le Masque no 153, 1934</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Leslie_McFarlane</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Leslie_McFarlane</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Autres romans policiers</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Agent of the Falcon (1975)
 Mystery of Spider Lake (1975), réédition d'une longue nouvelle de 1931
-The Snow Hawk (1976), réédition sous forme de roman de plusieurs nouvelles écrites dans les années 1930
-Romans d'aventures
-Squeeze Play (1975)
+The Snow Hawk (1976), réédition sous forme de roman de plusieurs nouvelles écrites dans les années 1930</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Leslie_McFarlane</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Leslie_McFarlane</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Romans d'aventures</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Squeeze Play (1975)
 The Dymanite Flynns (1975)
-Breakaway (1976)
-Autres romans
-The Last Great Picnics (1965)
-McGonigle Scores (1966)
-Littérature d’enfance et de jeunesse
-Série Les Frères Hardy (The Hardy Boys) signée du nom-maison Franklin W. Dixon
-The Tower Treasure (1927) Publié en français sous le titre Le Trésor de la tour, Paris, Charpentier, coll. Lecture et Loisir no 43, 1961
+Breakaway (1976)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Leslie_McFarlane</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Leslie_McFarlane</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Autres romans</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>The Last Great Picnics (1965)
+McGonigle Scores (1966)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Leslie_McFarlane</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Leslie_McFarlane</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Littérature d’enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Série Les Frères Hardy (The Hardy Boys) signée du nom-maison Franklin W. Dixon</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>The Tower Treasure (1927) Publié en français sous le titre Le Trésor de la tour, Paris, Charpentier, coll. Lecture et Loisir no 43, 1961
 The House on the Cliff  (1927) Publié en français sous le titre La Maison sur la falaise, Paris, Charpentier, coll. Lecture et Loisir no 22, 1960
 The Secret of the Old Mill  (1927) Publié en français sous le titre Le Mystère du vieux moulin, Paris, Charpentier, coll. Lecture et Loisir no 37, 1961 ; réédition dans la même collection no 71, 1964, et no 148, 1970
 The Missing Chums (1928)
@@ -584,27 +757,178 @@
 The Melted Coins (1944)
 The Short-Wave Mystery (1945)
 The Secret Panel (1946)
-The Phantom Freighter (1947), écrite par la femme de l'auteur Amy McFarlane
-Série Une enquête des sœurs Parker (The Dana girls) signée du nom-maison Caroline Quine
-By the Light of the Study Lamp (1934) Publié en français sous le titre Les sœurs Parker trouvent une piste, Paris, Hachette, Bibliothèque verte, 2e série, no 100, 1966 ; réédition, Paris, Hachette, Bibliothèque verte, 3e série, 1972
+The Phantom Freighter (1947), écrite par la femme de l'auteur Amy McFarlane</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Leslie_McFarlane</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Leslie_McFarlane</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Littérature d’enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Série Une enquête des sœurs Parker (The Dana girls) signée du nom-maison Caroline Quine</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>By the Light of the Study Lamp (1934) Publié en français sous le titre Les sœurs Parker trouvent une piste, Paris, Hachette, Bibliothèque verte, 2e série, no 100, 1966 ; réédition, Paris, Hachette, Bibliothèque verte, 3e série, 1972
 Secret at Lone Tree Cottage (1934) Publié en français sous le titre Les sœurs Parker et les ravisseurs, Paris, Hachette, Bibliothèque verte, 2e série, no 302, 1966 ; réédition, Paris, Hachette, Bibliothèque verte, 3e série, 1972
 In the Shadow of the Tower (1934) Publié en français sous le titre Dans l’ombre de la tour, Paris, Hachette, Bibliothèque verte, 3e série, 1978
-A-Three Cornered Mystery (1935) Publié en français sous le titre Le Gros Lot, Paris, Hachette, Bibliothèque verte, 2e série, no 307, 1966 ; réédition, Paris, Hachette, Bibliothèque verte, 3e série, 1972
-Série Dave Fearless signée Roy Rockwood
-Dave Fearless Under the Ocean (1926)
+A-Three Cornered Mystery (1935) Publié en français sous le titre Le Gros Lot, Paris, Hachette, Bibliothèque verte, 2e série, no 307, 1966 ; réédition, Paris, Hachette, Bibliothèque verte, 3e série, 1972</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Leslie_McFarlane</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Leslie_McFarlane</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Littérature d’enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Série Dave Fearless signée Roy Rockwood</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Dave Fearless Under the Ocean (1926)
 Dave Fearless in the Black Jungle (1926)
 Dave Fearless Near the South Pole (1926)
 Dave Fearless Caught by Malay Pirates (1926)
 Dave Fearless on the Ship of Mystery (1927)
-Dave Fearless on the Lost Brig (1927)
-Nouvelles
-Série Uncle Absalone
-Absalone and Their Wolf (1928)
+Dave Fearless on the Lost Brig (1927)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Leslie_McFarlane</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Leslie_McFarlane</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Série Uncle Absalone</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Absalone and Their Wolf (1928)
 Absalone Answers an Ad (1928)
 Uncle Absalone's Friend Fred (1929)
-Uncle Absalone Minds Nanny (1929)
-Série Baldwin
-Baldwin's Big Chance (1935)
+Uncle Absalone Minds Nanny (1929)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Leslie_McFarlane</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Leslie_McFarlane</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Série Baldwin</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Baldwin's Big Chance (1935)
 Baldwin's Big Mistake (1936)
 Baldwin the Bouncer (1936)
 Baldwin Eats a Pie (1936)
@@ -612,8 +936,47 @@
 Baldwin Has a Tooth Ake (1937)
 Baldwin Takes Advice (1937)
 Baldwin's Big Revenge (1937)
-Baldwin's Ten-Mile Dash (1937)
-Autres nouvelles
+Baldwin's Ten-Mile Dash (1937)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Leslie_McFarlane</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Leslie_McFarlane</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Autres nouvelles</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 The River Trail ou Rivals in the Snow (1925)
 An Imposter (1925)
 The Black Suit (1925)
@@ -821,13 +1184,116 @@
 Blitz at Blizzard Lake (1942)
 Hockey (1942), novelette
 Championship Fight (1943)
-Théâtre
-Fire in the North (1972), sur le grand incendie ontarien de 1922.
-Autobiographies
-A Kid in Haileybury (1975)
-Ghost of the Hardy Boys (1976)
-Autre publication
-Haileybury Fire (1972), série d'articles sur le grand incendie ontarien de 1922.</t>
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Leslie_McFarlane</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Leslie_McFarlane</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Théâtre</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Fire in the North (1972), sur le grand incendie ontarien de 1922.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Leslie_McFarlane</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Leslie_McFarlane</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Autobiographies</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>A Kid in Haileybury (1975)
+Ghost of the Hardy Boys (1976)</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Leslie_McFarlane</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Leslie_McFarlane</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Autre publication</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Haileybury Fire (1972), série d'articles sur le grand incendie ontarien de 1922.</t>
         </is>
       </c>
     </row>
